--- a/LINKS DEEL RECHTS.xlsx
+++ b/LINKS DEEL RECHTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65ccda54e282994c/Documenten/Excel Analytics/Excel sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{D3B761EC-CBCA-4142-85FC-3F438B63E8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0AD5B7D-789C-46E0-B5DC-5D3D1441F91E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{D3B761EC-CBCA-4142-85FC-3F438B63E8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945639FC-2238-419C-A9AB-B9F411B84058}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{340C3C1A-9909-46BB-8F2F-F4DF02F9D481}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{340C3C1A-9909-46BB-8F2F-F4DF02F9D481}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -413,6 +413,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC7324E-D4E0-424A-B19F-4C9E621CB9D7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD0855-75F4-4D3E-B142-88C0E159B33B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
@@ -433,29 +475,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="str">
-        <f>LEFT(A2,4)</f>
-        <v>1927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B4" si="0">LEFT(A3,4)</f>
-        <v>1951</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>1934</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -463,12 +493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD0855-75F4-4D3E-B142-88C0E159B33B}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D696AB3-AB7A-4538-A9D2-214471D2B0C6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,83 +517,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>MID(A2,2,4)</f>
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B4" si="0">MID(A3,2,4)</f>
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>1934</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D696AB3-AB7A-4538-A9D2-214471D2B0C6}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="str">
-        <f>RIGHT(A2,4)</f>
-        <v>1927</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B4" si="0">RIGHT(A3,4)</f>
-        <v>1951</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>1934</v>
       </c>
     </row>
   </sheetData>
